--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -345,7 +345,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -353,34 +353,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.80078125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2146,273 +2147,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DAD23BF-A88E-415A-AFD9-B30811A55041}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EEB3516-323B-41F4-98DC-04D63C71C704}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFDDD80-C0B3-435A-B01D-961BE134DEE0}"/>
 </file>
--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="103">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -288,6 +294,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -370,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -382,6 +391,7 @@
     <col min="4" max="4" width="31.80078125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -403,165 +413,192 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -583,1565 +620,1802 @@
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="104">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,46 +32,49 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante lo stato di gravidanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante lo stato di gravidanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -621,1801 +624,1801 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="105">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,6 +47,12 @@
     <t/>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,9 +62,6 @@
     <t>194</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>195</t>
   </si>
   <si>
@@ -299,7 +302,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -382,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -394,7 +397,7 @@
     <col min="4" max="4" width="31.80078125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,13 +448,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -468,13 +471,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -491,13 +494,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -514,13 +517,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -537,13 +540,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -560,13 +563,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -583,13 +586,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -605,1820 +608,1843 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>25</v>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="107">
   <si>
     <t>Sezione</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -385,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1368,19 +1374,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1391,19 +1397,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1414,19 +1420,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1437,19 +1443,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1460,19 +1466,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1483,19 +1489,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1506,19 +1512,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1529,19 +1535,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1877,22 +1883,22 @@
         <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -1900,7 +1906,7 @@
         <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -1909,541 +1915,610 @@
         <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="108">
   <si>
     <t>Sezione</t>
   </si>
@@ -308,7 +308,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -403,7 +406,7 @@
     <col min="4" max="4" width="31.80078125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2435,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2455,19 +2458,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2481,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
@@ -2501,10 +2504,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2513,7 +2516,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="107">
   <si>
     <t>Sezione</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2438,7 +2435,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2458,19 +2455,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2478,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
@@ -2504,10 +2501,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2516,7 +2513,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="108">
   <si>
     <t>Sezione</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2435,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2455,19 +2458,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2481,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
@@ -2501,10 +2504,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2513,7 +2516,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -394,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -404,7 +434,7 @@
     <col min="2" max="2" width="46.734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.80078125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1929,599 +1959,714 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -424,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1430,19 +1436,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1459,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1482,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1505,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1522,19 +1528,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1551,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1574,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1597,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1643,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1712,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1735,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1827,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1873,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1896,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1919,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2074,599 +2080,668 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="2" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1459,19 +1465,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1488,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1534,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1580,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1603,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1764,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1810,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1856,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1902,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1948,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1994,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2040,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2063,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2086,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2109,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2126,622 +2132,691 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="2" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1488,19 +1494,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1517,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1540,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1563,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2092,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2178,645 +2184,714 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="2" t="s">
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -2512,7 +2512,7 @@
         <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>112</v>
@@ -2535,7 +2535,7 @@
         <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>112</v>
@@ -2544,7 +2544,7 @@
         <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>114</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -442,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1517,19 +1529,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1552,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1575,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1598,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1632,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1667,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1690,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1736,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1759,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1782,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1805,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1828,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1851,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1874,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1897,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1920,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1943,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1966,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1989,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2012,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2035,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2081,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2104,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2127,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2150,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2173,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2196,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2219,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2230,668 +2242,806 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>26</v>
       </c>
     </row>
